--- a/data-raw/cochran.eelworms.xlsx
+++ b/data-raw/cochran.eelworms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37D2615-D6D3-4F0B-A5E6-053A35A15BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05DBC15-FE0F-4117-B101-3B9CDE76A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{B9F1BF2B-780C-4123-B1AC-FBBDD2088C89}"/>
+    <workbookView xWindow="3580" yWindow="2540" windowWidth="7590" windowHeight="8130" xr2:uid="{B9F1BF2B-780C-4123-B1AC-FBBDD2088C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,9 +478,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -544,7 +544,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -576,7 +576,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -608,7 +608,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -640,7 +640,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -672,7 +672,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,7 +704,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -736,7 +736,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -768,7 +768,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,7 +800,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -832,7 +832,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,7 +864,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,7 +896,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -928,7 +928,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -960,7 +960,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -992,7 +992,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>13</v>
       </c>
@@ -2056,8 +2056,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>